--- a/Python/output/case-study/Trans_SA_FAresults.xlsx
+++ b/Python/output/case-study/Trans_SA_FAresults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8CA1259C-F791-2B4F-AE9A-192FF6BB84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20FED5C3-41A8-BC46-9474-E2E663124EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{B6582615-37BE-A043-BAAA-D545D8B82DCA}"/>
+    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{4B366938-1412-9442-985B-B65F61E2DE09}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_FAresults" sheetId="1" r:id="rId1"/>
@@ -900,16 +900,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79168DBE-0070-4245-826C-22C1557A5A0B}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EECD48A-8BC4-DD41-83D9-06D30430CE14}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A12" sqref="A12:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -943,19 +943,22 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2234573.2818296598</v>
+        <v>2381643.3882439099</v>
       </c>
       <c r="E2">
-        <v>136426.8697288</v>
+        <v>2222955.4972728998</v>
       </c>
       <c r="F2">
-        <v>166.42625999450601</v>
+        <v>128535.76440986901</v>
       </c>
       <c r="G2">
-        <v>8.0400049686431796</v>
+        <v>184.668517112731</v>
+      </c>
+      <c r="H2">
+        <v>8.2553119659423793</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -966,19 +969,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2713758.2892251201</v>
+        <v>2821914.1340145199</v>
       </c>
       <c r="E3">
-        <v>165080.38580115201</v>
+        <v>2706256.24919905</v>
       </c>
       <c r="F3">
-        <v>185.93408489227201</v>
+        <v>159403.97575280699</v>
       </c>
       <c r="G3">
-        <v>6.2726929187774596</v>
+        <v>241.14866900443999</v>
+      </c>
+      <c r="H3">
+        <v>8.3008050918579102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -989,19 +995,22 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3019237.05173699</v>
+        <v>3122037.0383764799</v>
       </c>
       <c r="E4">
-        <v>165997.10647828499</v>
+        <v>2985050.4184181402</v>
       </c>
       <c r="F4">
-        <v>177.36693310737601</v>
+        <v>154130.18182301</v>
       </c>
       <c r="G4">
-        <v>6.9930679798126203</v>
+        <v>152.82464623451199</v>
+      </c>
+      <c r="H4">
+        <v>7.4828810691833496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1012,19 +1021,22 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3135542.0166247101</v>
+        <v>3207158.06218067</v>
       </c>
       <c r="E5">
-        <v>212733.91899878299</v>
+        <v>3117791.1986296498</v>
       </c>
       <c r="F5">
-        <v>168.91640210151601</v>
+        <v>194508.92034733901</v>
       </c>
       <c r="G5">
-        <v>6.5615549087524396</v>
+        <v>137.048561811447</v>
+      </c>
+      <c r="H5">
+        <v>7.0166237354278502</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1035,19 +1047,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3132666.6752300998</v>
+        <v>3279925.7875484098</v>
       </c>
       <c r="E6">
-        <v>195434.692801953</v>
+        <v>3098092.50487509</v>
       </c>
       <c r="F6">
-        <v>94.403269767761202</v>
+        <v>183063.87272771</v>
       </c>
       <c r="G6">
-        <v>5.0483090877532897</v>
+        <v>89.925000905990601</v>
+      </c>
+      <c r="H6">
+        <v>6.3266470432281396</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1058,19 +1073,22 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2543140.3046899098</v>
+        <v>2526654.2639261698</v>
       </c>
       <c r="E7">
-        <v>241778.52807183599</v>
+        <v>2447205.6588917398</v>
       </c>
       <c r="F7">
-        <v>60.032260179519596</v>
+        <v>214479.017386555</v>
       </c>
       <c r="G7">
-        <v>5.4709231853485099</v>
+        <v>69.639910936355506</v>
+      </c>
+      <c r="H7">
+        <v>7.2342720031738201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1081,19 +1099,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2900273.3881761902</v>
+        <v>2829905.2350418498</v>
       </c>
       <c r="E8">
-        <v>231207.01397655101</v>
+        <v>2766113.0903791902</v>
       </c>
       <c r="F8">
-        <v>71.935192823410006</v>
+        <v>195691.066087126</v>
       </c>
       <c r="G8">
-        <v>5.9101388454437203</v>
+        <v>152.65516281127901</v>
+      </c>
+      <c r="H8">
+        <v>9.6085071563720703</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1104,19 +1125,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3155305.8535308698</v>
+        <v>3011140.6156149898</v>
       </c>
       <c r="E9">
-        <v>288976.99027453101</v>
+        <v>3024463.8549595</v>
       </c>
       <c r="F9">
-        <v>84.594595909118596</v>
+        <v>259285.134317752</v>
       </c>
       <c r="G9">
-        <v>6.1040697097778303</v>
+        <v>70.455646991729694</v>
+      </c>
+      <c r="H9">
+        <v>7.3117578029632497</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1127,19 +1151,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3223311.0177498199</v>
+        <v>3081079.3461357299</v>
       </c>
       <c r="E10">
-        <v>300111.36973794899</v>
+        <v>3083956.0169368102</v>
       </c>
       <c r="F10">
-        <v>89.536524057388306</v>
+        <v>268673.96434557298</v>
       </c>
       <c r="G10">
-        <v>6.2570290565490696</v>
+        <v>62.215770006179802</v>
+      </c>
+      <c r="H10">
+        <v>7.0430331230163503</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1150,16 +1177,19 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3206690.0685868501</v>
+        <v>3124470.6658938001</v>
       </c>
       <c r="E11">
-        <v>295806.34573619103</v>
+        <v>3077598.9143366399</v>
       </c>
       <c r="F11">
-        <v>60.6284019947052</v>
+        <v>263191.50109585602</v>
       </c>
       <c r="G11">
-        <v>5.4831590652465803</v>
+        <v>62.654609918594304</v>
+      </c>
+      <c r="H11">
+        <v>7.0196681022643999</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/Trans_SA_FAresults.xlsx
+++ b/Python/output/case-study/Trans_SA_FAresults.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20FED5C3-41A8-BC46-9474-E2E663124EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{4B366938-1412-9442-985B-B65F61E2DE09}"/>
+    <workbookView xWindow="22200" yWindow="6620" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_FAresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>instance_option</t>
   </si>
@@ -42,11 +49,14 @@
   <si>
     <t>test_time</t>
   </si>
+  <si>
+    <t>LB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -900,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EECD48A-8BC4-DD41-83D9-06D30430CE14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,15 +930,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -943,19 +956,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2381643.3882439099</v>
+        <v>2381917.3708052002</v>
       </c>
       <c r="E2">
-        <v>2222955.4972728998</v>
+        <v>2224109.5738952402</v>
       </c>
       <c r="F2">
-        <v>128535.76440986901</v>
+        <v>128755.877329667</v>
       </c>
       <c r="G2">
-        <v>184.668517112731</v>
+        <v>172.79141712188701</v>
       </c>
       <c r="H2">
-        <v>8.2553119659423793</v>
+        <v>7.2834231853485099</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,19 +982,19 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2821914.1340145199</v>
+        <v>2821117.4904798502</v>
       </c>
       <c r="E3">
-        <v>2706256.24919905</v>
+        <v>2702340.9756223098</v>
       </c>
       <c r="F3">
-        <v>159403.97575280699</v>
+        <v>158119.72047798801</v>
       </c>
       <c r="G3">
-        <v>241.14866900443999</v>
+        <v>134.83133006095801</v>
       </c>
       <c r="H3">
-        <v>8.3008050918579102</v>
+        <v>6.7389283180236799</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,19 +1008,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3122037.0383764799</v>
+        <v>3124434.31244912</v>
       </c>
       <c r="E4">
-        <v>2985050.4184181402</v>
+        <v>2985251.8338046698</v>
       </c>
       <c r="F4">
-        <v>154130.18182301</v>
+        <v>154233.01989820701</v>
       </c>
       <c r="G4">
-        <v>152.82464623451199</v>
+        <v>318.20528793334898</v>
       </c>
       <c r="H4">
-        <v>7.4828810691833496</v>
+        <v>10.941272974014201</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,19 +1034,19 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3207158.06218067</v>
+        <v>3208616.19458741</v>
       </c>
       <c r="E5">
-        <v>3117791.1986296498</v>
+        <v>3119646.2051250502</v>
       </c>
       <c r="F5">
-        <v>194508.92034733901</v>
+        <v>195906.26697943901</v>
       </c>
       <c r="G5">
-        <v>137.048561811447</v>
+        <v>182.00984430313099</v>
       </c>
       <c r="H5">
-        <v>7.0166237354278502</v>
+        <v>7.4736657142639098</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,19 +1060,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3279925.7875484098</v>
+        <v>3279854.349891</v>
       </c>
       <c r="E6">
-        <v>3098092.50487509</v>
+        <v>3100418.8371999399</v>
       </c>
       <c r="F6">
-        <v>183063.87272771</v>
+        <v>183713.694034418</v>
       </c>
       <c r="G6">
-        <v>89.925000905990601</v>
+        <v>99.673047065734806</v>
       </c>
       <c r="H6">
-        <v>6.3266470432281396</v>
+        <v>6.2072639465331996</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1073,19 +1086,19 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2526654.2639261698</v>
+        <v>2526503.0701657198</v>
       </c>
       <c r="E7">
-        <v>2447205.6588917398</v>
+        <v>2446379.7740750802</v>
       </c>
       <c r="F7">
-        <v>214479.017386555</v>
+        <v>214354.718946526</v>
       </c>
       <c r="G7">
-        <v>69.639910936355506</v>
+        <v>76.719655990600501</v>
       </c>
       <c r="H7">
-        <v>7.2342720031738201</v>
+        <v>7.2813510894775302</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,19 +1112,19 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2829905.2350418498</v>
+        <v>2829311.4969536001</v>
       </c>
       <c r="E8">
-        <v>2766113.0903791902</v>
+        <v>2765838.6373697198</v>
       </c>
       <c r="F8">
-        <v>195691.066087126</v>
+        <v>195737.92233664601</v>
       </c>
       <c r="G8">
-        <v>152.65516281127901</v>
+        <v>66.538102626800494</v>
       </c>
       <c r="H8">
-        <v>9.6085071563720703</v>
+        <v>6.9251949787139804</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,19 +1138,19 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3011140.6156149898</v>
+        <v>3009202.9975562799</v>
       </c>
       <c r="E9">
-        <v>3024463.8549595</v>
+        <v>3025749.1541551198</v>
       </c>
       <c r="F9">
-        <v>259285.134317752</v>
+        <v>259595.53274857899</v>
       </c>
       <c r="G9">
-        <v>70.455646991729694</v>
+        <v>87.090435028076101</v>
       </c>
       <c r="H9">
-        <v>7.3117578029632497</v>
+        <v>7.5620210170745796</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1151,19 +1164,19 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3081079.3461357299</v>
+        <v>3081331.1331428899</v>
       </c>
       <c r="E10">
-        <v>3083956.0169368102</v>
+        <v>3083036.93960738</v>
       </c>
       <c r="F10">
-        <v>268673.96434557298</v>
+        <v>268750.53732023702</v>
       </c>
       <c r="G10">
-        <v>62.215770006179802</v>
+        <v>81.368405103683401</v>
       </c>
       <c r="H10">
-        <v>7.0430331230163503</v>
+        <v>7.57218289375305</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1177,19 +1190,19 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3124470.6658938001</v>
+        <v>3124531.7976661902</v>
       </c>
       <c r="E11">
-        <v>3077598.9143366399</v>
+        <v>3078117.6668686401</v>
       </c>
       <c r="F11">
-        <v>263191.50109585602</v>
+        <v>263259.74107469001</v>
       </c>
       <c r="G11">
-        <v>62.654609918594304</v>
+        <v>61.789297342300401</v>
       </c>
       <c r="H11">
-        <v>7.0196681022643999</v>
+        <v>6.77239966392517</v>
       </c>
     </row>
   </sheetData>
